--- a/co_occurrence_sale.xlsx
+++ b/co_occurrence_sale.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,156 @@
       </c>
       <c r="B11" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>currently</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cleanser</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>preorder</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hope</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>receive</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>give</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +829,156 @@
       </c>
       <c r="B11" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>offer</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>whenever</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>benefit</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>come</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,6 +1110,156 @@
       </c>
       <c r="B11" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cleanser</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>preorder</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>hope</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>brand</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,6 +1391,156 @@
       </c>
       <c r="B11" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hurry</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>brand</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ripe</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>chaiye</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ance</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +1554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,6 +1672,156 @@
       </c>
       <c r="B11" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dm</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>discount</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>share</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>screenshot</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>request</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,6 +1955,156 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>acid</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>redeem</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sanahrose</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
